--- a/biology/Médecine/Pierre_Thouvenel/Pierre_Thouvenel.xlsx
+++ b/biology/Médecine/Pierre_Thouvenel/Pierre_Thouvenel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Thouvenel, né en 1745 à Sauville dans les Vosges[1], mort en 1815, est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Thouvenel, né en 1745 à Sauville dans les Vosges, mort en 1815, est un médecin français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir fait ses études à la faculté de Montpellier, il est nommé en 1773 inspecteur des eaux minérales de Contrexéville. Il garde cette fonction jusqu'en 1781, passant l'hiver à Paris et l'été dans cette ville.
 Il suscite à Paris, dans les années 1780, une controverse d'envergure en soutenant la véridicité des pratiques hydroscopiques.
@@ -545,11 +559,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mémoire chimique et médicinal sur la nature, les usages et les effets de l’air et des airs, des aliments et des médicaments relativement à l’économie animale ; ouvrage qui a remporté le prix double proposé par l’Académie de Toulouse pour l’année 1778, Paris : Didot le jeune, 1780, in-4°, 60 p.
 Traité sur le climat d’Italie, considéré sous ses rapports physiques, météorologiques et médicinaux, 4 volumes, 1798, Guiliari.
-Mémoire physique et médicinal de la baguette divinatoire du magnétisme et de l'électricité[2]</t>
+Mémoire physique et médicinal de la baguette divinatoire du magnétisme et de l'électricité</t>
         </is>
       </c>
     </row>
